--- a/public/planillas/trabajadores.xlsx
+++ b/public/planillas/trabajadores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>CELULAR EMPRESA</t>
   </si>
@@ -383,111 +383,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TIPO CUENTA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BANCO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NÚMERO CUENTA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>FECHA INGRESO</t>
     </r>
     <r>
@@ -1130,22 +1025,38 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
+    <t>CENTRO DE COSTO</t>
+  </si>
+  <si>
+    <t>TIENDA</t>
+  </si>
+  <si>
+    <t>TIPO CUENTA</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>NÚMERO CUENTA</t>
+  </si>
+  <si>
+    <t>GRATIFICACIÓN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1157,22 +1068,24 @@
     <r>
       <rPr>
         <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>FECHA RECONOCIMIENTO S. CESANTÍA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,24 +1148,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1320,7 +1215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1331,7 +1226,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1635,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1646,7 +1543,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1654,57 +1551,65 @@
     <col min="13" max="13" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="24.85546875" customWidth="1"/>
-    <col min="40" max="40" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" customWidth="1"/>
-    <col min="42" max="42" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.28515625" style="11" customWidth="1"/>
+    <col min="26" max="26" width="36.28515625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.28515625" customWidth="1"/>
+    <col min="37" max="37" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="24.85546875" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" customWidth="1"/>
+    <col min="46" max="46" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.28515625" customWidth="1"/>
+    <col min="52" max="52" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.42578125" customWidth="1"/>
+    <col min="55" max="55" width="18.28515625" customWidth="1"/>
+    <col min="56" max="56" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>52</v>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1729,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -1740,113 +1645,125 @@
       <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="M2" s="7"/>
     </row>
   </sheetData>
